--- a/results/jajapy_runs.xlsx
+++ b/results/jajapy_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\PycharmProjects\jajapy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51DB5E9-2ED6-4AEE-BCC6-3B5B8B02E663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A55E31-208D-4216-8F2F-8B725EAB8B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_tandem_untimed" sheetId="11" r:id="rId1"/>
@@ -3135,9 +3135,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -3659,7 +3660,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3674,6 +3675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4999,8 +5001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5846,8 +5848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1445BA30-1F3D-44EC-BDD3-538B2F0A5468}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6638,7 +6640,7 @@
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="14">
         <f t="shared" si="5"/>
         <v>11862.835003499998</v>
       </c>
@@ -12321,7 +12323,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13139,7 +13141,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:F40"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13755,7 +13757,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14370,7 +14372,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:G40"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15099,7 +15101,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15828,7 +15830,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:G40"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16558,7 +16560,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:G40"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17287,8 +17289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0549588-4112-4340-BB81-AC17DAF48628}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18094,8 +18096,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
